--- a/Test Cases - Language and Skill Features.xlsx
+++ b/Test Cases - Language and Skill Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Desktop\IT_Studies\Industry Connect - Test Analyst\Internship\ProjectMars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Desktop\IT_Studies\Industry Connect - Test Analyst\Internship\ProjectMars\OnboardProjectMars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373CEFC-491C-43F8-8A5E-E6CD5BD1871B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C39380-5FAA-4411-B161-7390A7C02672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseTemplate" sheetId="1" r:id="rId1"/>
@@ -790,11 +790,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -927,63 +934,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6299,8 +6309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6323,21 +6333,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6390,7 +6400,7 @@
       <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -6468,7 +6478,7 @@
       <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -6509,7 +6519,7 @@
       <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -6548,7 +6558,7 @@
       <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -6669,7 +6679,7 @@
       <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="10" t="s">
